--- a/document files/05_소프트웨어설계/클래스 설계/클래스설계 _업주페이지.xlsx
+++ b/document files/05_소프트웨어설계/클래스 설계/클래스설계 _업주페이지.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82103\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\document\document files\05_소프트웨어설계\클래스 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>클래스명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HomeController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스 개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,118 @@
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실등록, 수정 삭제 등 업주들에게 필요한 기능의 메서드를 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelandView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업주페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실관리페이지로이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실등록 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelandView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객실 상세페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약관리페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPlaceList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PlaceVO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑장목록 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPlace(int n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n번 캠핑장 정보 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMember()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyMember()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelandView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteMember()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -190,35 +298,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,7 +329,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -533,117 +625,173 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="8"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="9"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B5:B15"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
   </mergeCells>
